--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="9030" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Weighting" sheetId="8" r:id="rId5"/>
     <sheet name="ARpUIiRC" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1573,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -1835,7 +1835,7 @@
   <dimension ref="A1:AI111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
@@ -15648,8 +15648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16775,7 +16775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ119"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -23263,8 +23263,8 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23282,8 +23282,8 @@
         <v>65</v>
       </c>
       <c r="B2" s="5">
-        <f>Calculations!$B$17*Weighting!B104</f>
-        <v>4000</v>
+        <f>Calculations!$B$17*Weighting!B104*Calculations!$B$22</f>
+        <v>59.2780915109063</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -23291,8 +23291,8 @@
         <v>23</v>
       </c>
       <c r="B3" s="5">
-        <f>Calculations!$B$17*Weighting!B105</f>
-        <v>2327.75251853687</v>
+        <f>Calculations!$B$17*Weighting!B105*Calculations!$B$22</f>
+        <v>34.496181702142799</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -23300,8 +23300,8 @@
         <v>24</v>
       </c>
       <c r="B4" s="5">
-        <f>Calculations!$B$17*Weighting!B106</f>
-        <v>2499.0366203776048</v>
+        <f>Calculations!$B$17*Weighting!B106*Calculations!$B$22</f>
+        <v>37.034530367962418</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -23309,8 +23309,8 @@
         <v>25</v>
       </c>
       <c r="B5" s="5">
-        <f>Calculations!$B$17*Weighting!B107</f>
-        <v>1234.0477176808438</v>
+        <f>Calculations!$B$17*Weighting!B107*Calculations!$B$22</f>
+        <v>18.287998384377531</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -23318,8 +23318,8 @@
         <v>63</v>
       </c>
       <c r="B6" s="5">
-        <f>Calculations!$B$17*Weighting!B108</f>
-        <v>864.59164138827828</v>
+        <f>Calculations!$B$17*Weighting!B108*Calculations!$B$22</f>
+        <v>12.812835609444761</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -23327,8 +23327,8 @@
         <v>27</v>
       </c>
       <c r="B7" s="5">
-        <f>Calculations!$B$17*Weighting!B109</f>
-        <v>809.53921855820215</v>
+        <f>Calculations!$B$17*Weighting!B109*Calculations!$B$22</f>
+        <v>11.99698496984017</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -23336,8 +23336,8 @@
         <v>28</v>
       </c>
       <c r="B8" s="5">
-        <f>Calculations!$B$17*Weighting!B110</f>
-        <v>1673.0665716197434</v>
+        <f>Calculations!$B$17*Weighting!B110*Calculations!$B$22</f>
+        <v>24.794048334078354</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -23345,8 +23345,8 @@
         <v>29</v>
       </c>
       <c r="B9" s="5">
-        <f>Calculations!$B$17*Weighting!B111</f>
-        <v>5829.3187838329504</v>
+        <f>Calculations!$B$17*Weighting!B111*Calculations!$B$22</f>
+        <v>86.387723078573671</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -23354,8 +23354,8 @@
         <v>30</v>
       </c>
       <c r="B10" s="5">
-        <f>Calculations!$B$17*Weighting!B112</f>
-        <v>1754.2049659112263</v>
+        <f>Calculations!$B$17*Weighting!B112*Calculations!$B$22</f>
+        <v>25.996480624542986</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -23379,8 +23379,8 @@
         <v>62</v>
       </c>
       <c r="B13" s="5">
-        <f>Calculations!$B$17*Weighting!B115</f>
-        <v>4308.4963095431467</v>
+        <f>Calculations!$B$17*Weighting!B115*Calculations!$B$22</f>
+        <v>63.849859627875183</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -23388,8 +23388,8 @@
         <v>64</v>
       </c>
       <c r="B14" s="5">
-        <f>Calculations!$B$17*Weighting!B116</f>
-        <v>2800.556214334712</v>
+        <f>Calculations!$B$17*Weighting!B116*Calculations!$B$22</f>
+        <v>41.502906888692593</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -23413,8 +23413,8 @@
         <v>68</v>
       </c>
       <c r="B17" s="5">
-        <f>Calculations!$B$17*Weighting!B119</f>
-        <v>891.44746723857747</v>
+        <f>Calculations!$B$17*Weighting!B119*Calculations!$B$22</f>
+        <v>13.210826135033511</v>
       </c>
     </row>
   </sheetData>
